--- a/import/raw_data/mapping__subsector__action_type.xlsx
+++ b/import/raw_data/mapping__subsector__action_type.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_env\workspace\micat\back_end\import\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46AA876-18CE-4E66-98A3-25FBB18688DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28740" windowHeight="12270"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,24 +370,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -408,7 +410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -419,7 +421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -430,7 +432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -441,7 +443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -452,9 +454,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -463,9 +465,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -474,9 +476,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -485,9 +487,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -496,9 +498,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -507,9 +509,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -518,9 +520,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -529,9 +531,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -540,9 +542,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -551,9 +553,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -562,9 +564,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -573,9 +575,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -584,9 +586,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -595,9 +597,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -606,9 +608,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -617,9 +619,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -628,9 +630,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -639,9 +641,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -650,9 +652,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -661,9 +663,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -672,9 +674,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -683,9 +685,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -694,9 +696,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -705,9 +707,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -716,9 +718,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -727,9 +729,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -738,9 +740,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -749,9 +751,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>9</v>
@@ -760,9 +762,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -771,9 +773,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -782,9 +784,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -793,9 +795,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -804,9 +806,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -815,9 +817,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -826,9 +828,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -837,9 +839,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -848,9 +850,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>11</v>
@@ -859,9 +861,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>11</v>
@@ -870,9 +872,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>11</v>
@@ -881,9 +883,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>12</v>
@@ -892,9 +894,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>12</v>
@@ -903,9 +905,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>12</v>
@@ -914,9 +916,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -925,9 +927,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>13</v>
@@ -936,9 +938,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>13</v>
@@ -947,9 +949,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>13</v>
@@ -958,9 +960,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>13</v>
@@ -969,9 +971,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>14</v>
@@ -980,9 +982,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>14</v>
@@ -991,9 +993,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>14</v>
@@ -1002,9 +1004,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>14</v>
@@ -1013,9 +1015,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>15</v>
@@ -1024,9 +1026,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -1035,9 +1037,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>15</v>
@@ -1046,9 +1048,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>15</v>
@@ -1057,9 +1059,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>16</v>
@@ -1068,9 +1070,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>16</v>
@@ -1079,9 +1081,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>16</v>
@@ -1090,9 +1092,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>16</v>
@@ -1101,9 +1103,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>16</v>
@@ -1112,9 +1114,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>16</v>
@@ -1123,9 +1125,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>16</v>
@@ -1134,9 +1136,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>17</v>
@@ -1145,9 +1147,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>17</v>
@@ -1156,9 +1158,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>17</v>
@@ -1167,9 +1169,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>17</v>
@@ -1178,9 +1180,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>17</v>
@@ -1189,9 +1191,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>17</v>
@@ -1200,9 +1202,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>18</v>
@@ -1211,9 +1213,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>18</v>
@@ -1222,9 +1224,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>18</v>
@@ -1233,9 +1235,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>18</v>
@@ -1244,9 +1246,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>18</v>
@@ -1255,9 +1257,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>19</v>
@@ -1266,9 +1268,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>19</v>
@@ -1277,9 +1279,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>19</v>
@@ -1288,9 +1290,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>19</v>
@@ -1299,9 +1301,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>20</v>
@@ -1310,9 +1312,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>20</v>
@@ -1321,9 +1323,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>20</v>
@@ -1332,9 +1334,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>20</v>
@@ -1343,9 +1345,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>21</v>
@@ -1354,9 +1356,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>21</v>
@@ -1365,9 +1367,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>21</v>
@@ -1376,9 +1378,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>21</v>
@@ -1387,9 +1389,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>22</v>
@@ -1398,9 +1400,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>22</v>
@@ -1409,9 +1411,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>22</v>
@@ -1420,9 +1422,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>22</v>
@@ -1431,9 +1433,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>23</v>
@@ -1442,9 +1444,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>23</v>
@@ -1453,9 +1455,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>24</v>
@@ -1464,9 +1466,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>24</v>
@@ -1475,9 +1477,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>24</v>
@@ -1486,15 +1488,213 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>24</v>
       </c>
       <c r="C101">
         <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>31</v>
+      </c>
+      <c r="C104">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>31</v>
+      </c>
+      <c r="C105">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>32</v>
+      </c>
+      <c r="C106">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>32</v>
+      </c>
+      <c r="C107">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>33</v>
+      </c>
+      <c r="C108">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>33</v>
+      </c>
+      <c r="C109">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>33</v>
+      </c>
+      <c r="C110">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>34</v>
+      </c>
+      <c r="C111">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>34</v>
+      </c>
+      <c r="C112">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>34</v>
+      </c>
+      <c r="C113">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>35</v>
+      </c>
+      <c r="C114">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>35</v>
+      </c>
+      <c r="C115">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>35</v>
+      </c>
+      <c r="C116">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>36</v>
+      </c>
+      <c r="C117">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>37</v>
+      </c>
+      <c r="C118">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>38</v>
+      </c>
+      <c r="C119">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1504,27 +1704,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">mapping</Type>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010081027A5C4AB68A40A5017F28CDCC410C" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f1f428d4bdb6f67b400b210b48125618">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca47701c-f272-4f81-9665-1c7dbebc0776" xmlns:ns3="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8189f6f0f7c839d9d0d3622fd62ec189" ns2:_="" ns3:_="">
     <xsd:import namespace="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
@@ -1777,10 +1956,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">mapping</Type>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ABC386C-B0B5-453C-9DA6-2E18A174CD66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD4AFBB-A2EA-4F65-8F54-BC6EE6CA57F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
+    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1803,20 +2014,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD4AFBB-A2EA-4F65-8F54-BC6EE6CA57F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ABC386C-B0B5-453C-9DA6-2E18A174CD66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
-    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/import/raw_data/mapping__subsector__action_type.xlsx
+++ b/import/raw_data/mapping__subsector__action_type.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46AA876-18CE-4E66-98A3-25FBB18688DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0F43C1-46B3-4516-ACB9-7A806B6143DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$110</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -372,10 +375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A119"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,7 +1224,7 @@
         <v>18</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1232,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1240,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1251,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,7 +1268,7 @@
         <v>19</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1273,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1284,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1295,7 +1298,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C83">
         <v>17</v>
@@ -1306,7 +1309,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <v>13</v>
@@ -1317,7 +1320,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C85">
         <v>15</v>
@@ -1328,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1339,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C87">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1350,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1361,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1372,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1383,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C91">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1394,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C92">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1405,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1416,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1427,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C95">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1438,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1449,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1460,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C98">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1471,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1482,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C101">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1504,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -1515,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C103">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -1526,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C104">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -1537,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C105">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -1548,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C106">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -1559,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C107">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -1570,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C108">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -1581,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C109">
         <v>37</v>
@@ -1592,118 +1595,41 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C110">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>34</v>
-      </c>
-      <c r="C111">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>34</v>
-      </c>
-      <c r="C112">
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <v>34</v>
-      </c>
-      <c r="C113">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <v>35</v>
-      </c>
-      <c r="C114">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>35</v>
-      </c>
-      <c r="C115">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <v>35</v>
-      </c>
-      <c r="C116">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <v>36</v>
-      </c>
-      <c r="C117">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>37</v>
-      </c>
-      <c r="C118">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>38</v>
-      </c>
-      <c r="C119">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C110" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">mapping</Type>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010081027A5C4AB68A40A5017F28CDCC410C" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f1f428d4bdb6f67b400b210b48125618">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca47701c-f272-4f81-9665-1c7dbebc0776" xmlns:ns3="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8189f6f0f7c839d9d0d3622fd62ec189" ns2:_="" ns3:_="">
     <xsd:import namespace="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
@@ -1956,42 +1882,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">mapping</Type>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD4AFBB-A2EA-4F65-8F54-BC6EE6CA57F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ABC386C-B0B5-453C-9DA6-2E18A174CD66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
-    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2014,9 +1908,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ABC386C-B0B5-453C-9DA6-2E18A174CD66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD4AFBB-A2EA-4F65-8F54-BC6EE6CA57F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
+    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>